--- a/数据整理/stocks/A股/上证主板/603035-常熟汽饰.xlsx
+++ b/数据整理/stocks/A股/上证主板/603035-常熟汽饰.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>21.60</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.36</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003980</t>
+          <t>005571</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银证券瑞益灵活配置混合A</t>
+          <t>中银证券新能源灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.92</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -594,25 +634,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003981</t>
+          <t>003980</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中银证券瑞益灵活配置混合C</t>
+          <t>中银证券瑞益灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>88.92</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.47</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -622,25 +672,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005571</t>
+          <t>005572</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中银证券新能源灵活配置混合A</t>
+          <t>中银证券新能源灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.46</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.57</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005572</t>
+          <t>003981</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中银证券新能源灵活配置混合C</t>
+          <t>中银证券瑞益灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603035-常熟汽饰.xlsx
+++ b/数据整理/stocks/A股/上证主板/603035-常熟汽饰.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603035-常熟汽饰.xlsx
+++ b/数据整理/stocks/A股/上证主板/603035-常熟汽饰.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1106,4 +1107,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603035-常熟汽饰.xlsx
+++ b/数据整理/stocks/A股/上证主板/603035-常熟汽饰.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1115,7 +1116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,17 +1127,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1146,14 +1167,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2</v>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1162,14 +1205,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1178,13 +1243,287 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>61.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603035-常熟汽饰.xlsx
+++ b/数据整理/stocks/A股/上证主板/603035-常熟汽饰.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1438,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,17 +1450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>014273</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>52.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.33</v>
       </c>
     </row>
     <row r="3">
@@ -1485,14 +1528,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>014274</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>52.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4">
@@ -1501,14 +1634,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
@@ -1517,13 +1650,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603035-常熟汽饰.xlsx
+++ b/数据整理/stocks/A股/上证主板/603035-常熟汽饰.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1571,7 +1572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1582,17 +1583,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1602,14 +1623,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.23</v>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4456</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1618,14 +1661,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.33</v>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6038</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1634,14 +1699,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2</v>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4774</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1650,14 +1737,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.07000000000000001</v>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>34.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4526</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1666,13 +1775,395 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>013533</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2611</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2584</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>34.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603035-常熟汽饰.xlsx
+++ b/数据整理/stocks/A股/上证主板/603035-常熟汽饰.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,91 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008547</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博道安远6个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>21.60</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>7</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -550,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -601,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005571</t>
+          <t>008638</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银证券新能源灵活配置混合A</t>
+          <t>广发科技创新混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>43.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>87.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0373</t>
+          <t>1.4456</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -639,32 +677,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003980</t>
+          <t>007497</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中银证券瑞益灵活配置混合A</t>
+          <t>中庚价值灵动灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>23.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.92</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0192</t>
+          <t>0.6038</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -677,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005572</t>
+          <t>481010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中银证券新能源灵活配置混合C</t>
+          <t>工银瑞信中小盘混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>18.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>94.31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0117</t>
+          <t>0.4774</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -715,36 +753,302 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003981</t>
+          <t>006972</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中银证券瑞益灵活配置混合C</t>
+          <t>金鹰民安回报一年定期开放混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>32.33</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.92</t>
+          <t>34.20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.4526</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013533</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2611</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2584</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>34.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -758,7 +1062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,7 +1083,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -809,32 +1113,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005571</t>
+          <t>014273</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银证券新能源灵活配置混合A</t>
+          <t>广发北交所精选两年定开混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>69.25</t>
+          <t>52.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0544</t>
+          <t>0.1879</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -847,264 +1151,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010703</t>
+          <t>014274</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>财通智选消费股票A</t>
+          <t>广发北交所精选两年定开混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.19</t>
+          <t>52.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0530</t>
+          <t>0.0380</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003980</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中银证券瑞益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>67.77</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0283</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005572</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中银证券新能源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>69.25</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0264</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
         <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010704</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>财通智选消费股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.19</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0216</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003981</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中银证券瑞益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>67.77</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0082</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004794</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富荣福鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.01</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004795</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富荣福鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>87.01</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1440,7 +1516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1461,7 +1537,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1491,32 +1567,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>014273</t>
+          <t>005571</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发北交所精选两年定开混合A</t>
+          <t>中银证券新能源灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>52.69</t>
+          <t>69.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1879</t>
+          <t>0.0544</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1529,36 +1605,264 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014274</t>
+          <t>010703</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发北交所精选两年定开混合C</t>
+          <t>财通智选消费股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>52.69</t>
+          <t>88.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0380</t>
+          <t>0.0530</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1572,7 +1876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1593,7 +1897,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1623,36 +1927,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008638</t>
+          <t>005571</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发科技创新混合</t>
+          <t>中银证券新能源灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.41</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.99</t>
+          <t>93.46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4456</t>
+          <t>0.0373</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1661,32 +1965,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007497</t>
+          <t>003980</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中庚价值灵动灵活配置混合</t>
+          <t>中银证券瑞益灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.96</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>88.92</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6038</t>
+          <t>0.0192</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1699,36 +2003,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>481010</t>
+          <t>005572</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中小盘混合</t>
+          <t>中银证券新能源灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.36</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>93.46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4774</t>
+          <t>0.0117</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1737,302 +2041,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006972</t>
+          <t>003981</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金鹰民安回报一年定期开放混合A</t>
+          <t>中银证券瑞益灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32.33</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>34.20</t>
+          <t>88.92</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4526</t>
+          <t>0.0036</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>013533</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.84</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.99</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2611</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519033</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>海富通国策导向混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.60</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.15</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2584</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>200010</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长城双动力混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1017</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007735</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>金鹰民安回报一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>34.20</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0421</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001892</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>长盛新兴成长主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0411</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004265</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>金鹰民丰回报定期开放混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>24.62</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0330</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002085</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长盛互联网+主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.38</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2046,128 +2084,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.74</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>008547</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博道安远6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.01</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603035-常熟汽饰.xlsx
+++ b/数据整理/stocks/A股/上证主板/603035-常熟汽饰.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>3.74</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>0.23</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -583,6 +600,1316 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>117.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5218</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6855</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7547</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7188</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6848</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5836</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5687</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013533</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2686</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2671</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2316</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>68.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>66.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>68.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001157</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国联安睿祺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002186</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国联安鑫享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>33.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002485</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>46.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001228</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国联安鑫享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>33.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000664</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>43.92</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>43.92</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011391</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>46.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>66.07</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1056,7 +2383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1188,7 +2515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1510,7 +2837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1870,7 +3197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2078,7 +3405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603035-常熟汽饰.xlsx
+++ b/数据整理/stocks/A股/上证主板/603035-常熟汽饰.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n">
-        <v>9.41</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>3.74</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -600,6 +617,1540 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8303</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1749</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6779</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7651</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6190</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5218</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2374</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013533</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1689</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002485</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>36.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002186</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国联安鑫享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000664</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>36.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015633</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中金景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009054</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>圆信永丰沣泰混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>31.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015634</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中金景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001228</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国联安鑫享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>016803</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>016399</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1909,7 +3460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2383,7 +3934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2515,7 +4066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2837,7 +4388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3197,7 +4748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3405,7 +4956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
